--- a/biology/Botanique/Paliurus/Paliurus.xlsx
+++ b/biology/Botanique/Paliurus/Paliurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paliurus est un genre de plantes à fleurs de la famille des Rhamnaceae. Toutes les espèces sont originaires des régions arides et chaudes d'Eurasie et d'Afrique du Nord depuis le Maroc et l'Espagne à l'ouest jusqu'au Japon et à Taïwan à l'est.
 </t>
@@ -511,11 +523,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Paliurus a été décrit par le botaniste écossais Philip Miller.
-Nom vernaculaire
-Paliure, épine de Christ, Porte-chapeau [2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Paliurus a été décrit par le botaniste écossais Philip Miller.
+</t>
         </is>
       </c>
     </row>
@@ -540,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Historique et dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce sont des arbustes ou petits arbres de 3 à 15 m de hauteur. Les tiges poussent en zigzag, avec une feuille et deux stipules épineux à l'extérieur de chaque coude. Les feuilles sont caduques ou persistantes, ovales, de 2 à 10 cm de long et de 1 à 7 cm de large, d'un vert brillant, avec trois nervures visibles à la base, et un bord dentelé ou lisse. Le fruit est une noisette ligneuse au centre d'une aile circulaire de 1 à 3,5 cm diamètre.
-</t>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paliure, épine de Christ, Porte-chapeau </t>
         </is>
       </c>
     </row>
@@ -571,10 +589,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbustes ou petits arbres de 3 à 15 m de hauteur. Les tiges poussent en zigzag, avec une feuille et deux stipules épineux à l'extérieur de chaque coude. Les feuilles sont caduques ou persistantes, ovales, de 2 à 10 cm de long et de 1 à 7 cm de large, d'un vert brillant, avec trois nervures visibles à la base, et un bord dentelé ou lisse. Le fruit est une noisette ligneuse au centre d'une aile circulaire de 1 à 3,5 cm diamètre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paliurus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paliurus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Paliurus hemsleyanus, Rehd., Sud de la Chine.
 Paliurus orientalis (Franch.) Hemsl.; Chine centrale.
@@ -583,31 +636,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Paliurus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Paliurus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de Paliurus sont utilisées comme plantes alimentaires par les larves de certaines espèces de lépidoptères, comme le Bucculatrix avec les espèces B. albella (se nourrit exclusivement sur P. spina-christi), B. paliuricola (se nourrit exclusivement sur Paliurus spp.) et B. turatii (se nourrit exclusivement sur P. aculeatus).
 </t>
